--- a/qa_qc_lib/kern/data/Direction.xlsx
+++ b/qa_qc_lib/kern/data/Direction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,12 +166,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
   <fonts count="28">
@@ -227,10 +227,66 @@
       <charset val="204"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,8 +297,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,40 +343,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,67 +357,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -392,187 +392,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,21 +628,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -653,32 +638,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,11 +660,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,151 +704,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -911,53 +911,53 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1335,7 +1335,7 @@
         <v>2879.85</v>
       </c>
       <c r="B4" s="9">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C4" s="3">
         <v>0.018</v>

--- a/qa_qc_lib/kern/data/Direction.xlsx
+++ b/qa_qc_lib/kern/data/Direction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Глубина</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Ном</t>
   </si>
   <si>
+    <t>Примечание</t>
+  </si>
+  <si>
     <t>Porosity</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>341-09</t>
   </si>
   <si>
+    <t>Скол</t>
+  </si>
+  <si>
     <t>342-09</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>349-09</t>
+  </si>
+  <si>
+    <t>Трещина</t>
   </si>
   <si>
     <t>350-09</t>
@@ -174,7 +183,7 @@
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +218,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman CYR"/>
@@ -224,6 +243,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman CYR"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
     <font>
@@ -742,137 +766,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -887,7 +911,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,16 +923,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1287,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1251,7 +1296,7 @@
     <col min="4" max="4" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="28.8" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,12 +1315,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:9">
@@ -1295,9 +1342,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7">
         <v>9</v>
       </c>
       <c r="I2" s="3">
@@ -1308,7 +1356,7 @@
       <c r="A3" s="3">
         <v>2879.4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>11.1</v>
       </c>
       <c r="C3" s="3">
@@ -1317,12 +1365,13 @@
       <c r="D3" s="3">
         <v>0.076</v>
       </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="4">
         <v>11.2471161240708</v>
       </c>
@@ -1334,7 +1383,7 @@
       <c r="A4" s="3">
         <v>2879.85</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>15.7</v>
       </c>
       <c r="C4" s="3">
@@ -1347,9 +1396,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="8">
         <v>9.69256349232223</v>
       </c>
       <c r="I4" s="3">
@@ -1360,7 +1410,7 @@
       <c r="A5" s="3">
         <v>2880.1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>15.7</v>
       </c>
       <c r="C5" s="3">
@@ -1369,13 +1419,14 @@
       <c r="D5" s="3">
         <v>0.119</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11">
         <v>7.27126913052196</v>
       </c>
       <c r="I5" s="3">
@@ -1399,9 +1450,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="9">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11">
         <v>9.55531173357428</v>
       </c>
       <c r="I6" s="3">
@@ -1425,13 +1477,14 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="4">
         <v>8.05023091035618</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:9">
@@ -1441,7 +1494,7 @@
       <c r="B8" s="4">
         <v>4.3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="15">
         <v>0.156</v>
       </c>
       <c r="D8" s="3">
@@ -1451,8 +1504,9 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4">
         <v>7.63169743358844</v>
       </c>
@@ -1473,12 +1527,13 @@
       <c r="D9" s="3">
         <v>0.165</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="4">
         <v>14.9691639601503</v>
       </c>
@@ -1496,20 +1551,21 @@
       <c r="C10" s="3">
         <v>0.138</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="4">
         <v>14.7644269048361</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>15</v>
+      <c r="I10" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:9">
@@ -1529,8 +1585,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="4">
         <v>15.7433139639802</v>
       </c>
@@ -1551,12 +1608,13 @@
       <c r="D12" s="3">
         <v>0.133</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="F12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="4">
         <v>15.4855729596043</v>
       </c>
@@ -1581,8 +1639,9 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="4">
         <v>13.2709703947369</v>
       </c>
@@ -1603,12 +1662,13 @@
       <c r="D14" s="3">
         <v>0.147</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <v>0</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="4">
         <v>15.5772177485085</v>
       </c>
@@ -1633,8 +1693,9 @@
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="4">
         <v>14.9221063473671</v>
       </c>
@@ -1652,19 +1713,22 @@
       <c r="C16" s="3">
         <v>0.084</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="15">
         <v>0.146</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="H16" s="4">
         <v>9.45696471489773</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="15">
         <v>0.146</v>
       </c>
     </row>
@@ -1685,8 +1749,9 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G17" s="18"/>
       <c r="H17" s="4">
         <v>1111</v>
       </c>
@@ -1711,8 +1776,9 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="4">
         <v>6.5</v>
       </c>
@@ -1737,8 +1803,9 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="4">
         <v>2.46445497630332</v>
       </c>
@@ -1763,8 +1830,9 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="4">
         <v>2.07008436080469</v>
       </c>
@@ -1789,7 +1857,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="H21" s="4">
         <v>7.34260222579525</v>
@@ -1811,11 +1882,14 @@
       <c r="D22" s="3">
         <v>0.109</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="16">
         <v>0</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>25</v>
+      <c r="F22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="H22" s="4">
         <v>7.01118638726956</v>
@@ -1841,13 +1915,14 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="4">
         <v>4.92554043234587</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:9">
@@ -1867,8 +1942,9 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="4">
         <v>6.09621859621858</v>
       </c>
@@ -1893,8 +1969,9 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="4">
         <v>6.35485987440245</v>
       </c>
@@ -1919,7 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="H26" s="4">
         <v>8.97370599095945</v>
@@ -1945,8 +2025,9 @@
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="4">
         <v>6.65846192685159</v>
       </c>
@@ -1971,8 +2052,9 @@
         <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="4">
         <v>1.43314577051015</v>
       </c>
@@ -1990,19 +2072,20 @@
       <c r="C29" s="3">
         <v>0.108</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="15">
         <v>0.146</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="4">
         <v>6.11773518946254</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="15">
         <v>0.146</v>
       </c>
     </row>
@@ -2010,7 +2093,7 @@
       <c r="A30" s="3">
         <v>2897.65</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>0.8</v>
       </c>
       <c r="C30" s="3">
@@ -2019,12 +2102,13 @@
       <c r="D30" s="3">
         <v>0.168</v>
       </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="14"/>
       <c r="H30" s="4">
         <v>10.3856617058729</v>
       </c>
@@ -2049,8 +2133,9 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="4">
         <v>8.85940979082385</v>
       </c>
@@ -2075,9 +2160,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="7">
+        <v>39</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="8">
         <v>10.2178080900148</v>
       </c>
       <c r="I32" s="3">
@@ -2101,8 +2187,9 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="4">
         <v>10.6125781029232</v>
       </c>
@@ -2127,8 +2214,9 @@
         <v>1</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="4">
         <v>10.1875678189428</v>
       </c>
@@ -2153,8 +2241,9 @@
         <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="4">
         <v>9.26993425357553</v>
       </c>
@@ -2179,8 +2268,9 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="4">
         <v>9.18647307253616</v>
       </c>
@@ -2205,8 +2295,9 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="4">
         <v>9.2817890155967</v>
       </c>
@@ -2231,8 +2322,9 @@
         <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="4">
         <v>9.84891586067387</v>
       </c>
@@ -2250,19 +2342,20 @@
       <c r="C39" s="3">
         <v>0.094</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="15">
         <v>0.146</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G39" s="18"/>
       <c r="H39" s="4">
         <v>9.7188302335776</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="15">
         <v>0.146</v>
       </c>
     </row>
@@ -2279,12 +2372,13 @@
       <c r="D40" s="3">
         <v>0.137</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="16">
         <v>0</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="F40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10"/>
       <c r="H40" s="4">
         <v>9.80813604324054</v>
       </c>
@@ -2309,8 +2403,9 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="4">
         <v>8.06050043570269</v>
       </c>
@@ -2335,8 +2430,9 @@
         <v>1</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="4">
         <v>8.89937700585234</v>
       </c>
@@ -2361,8 +2457,9 @@
         <v>1</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="4">
         <v>10.7300850249427</v>
       </c>
@@ -2383,12 +2480,13 @@
       <c r="D44" s="3">
         <v>0.168</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="16">
         <v>0</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="F44" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="17"/>
       <c r="H44" s="4">
         <v>7.76917312015988</v>
       </c>
@@ -2413,8 +2511,9 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G45" s="14"/>
       <c r="H45" s="4">
         <v>7.60897191510991</v>
       </c>
@@ -2439,8 +2538,9 @@
         <v>1</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" s="14"/>
       <c r="H46" s="4">
         <v>7.38717487119001</v>
       </c>
@@ -2465,8 +2565,9 @@
         <v>2</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G47" s="14"/>
       <c r="H47" s="4">
         <v>8.38717487119001</v>
       </c>
@@ -2476,6 +2577,7 @@
     </row>
     <row r="48" ht="15.6" spans="3:8">
       <c r="C48" s="3"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="4"/>
     </row>
   </sheetData>
